--- a/pcbs/Transmitter/PickAndPlace.xlsx
+++ b/pcbs/Transmitter/PickAndPlace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2025-10-23" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2025-11-27" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Designator</t>
   </si>
@@ -82,28 +82,97 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ESP32-S3-Zero</t>
+  </si>
+  <si>
+    <t>COMM-SMD_18P-P2.54-L23.5-W18.0-TL</t>
+  </si>
+  <si>
+    <t>15.367mm</t>
+  </si>
+  <si>
+    <t>-14.859mm</t>
+  </si>
+  <si>
+    <t>6.367mm</t>
+  </si>
+  <si>
+    <t>-4.699mm</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CL05A105KO5NNNC</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>25.4mm</t>
+  </si>
+  <si>
+    <t>-29.845mm</t>
+  </si>
+  <si>
+    <t>-30.39mm</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>18.544mm</t>
+  </si>
+  <si>
+    <t>-28.48mm</t>
+  </si>
+  <si>
+    <t>19.09mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>-27.432mm</t>
+  </si>
+  <si>
+    <t>-26.999mm</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>ESP32-S3-Zero</t>
-  </si>
-  <si>
-    <t>COMM-SMD_18P-P2.54-L23.5-W18.0-TL</t>
-  </si>
-  <si>
-    <t>15.367mm</t>
-  </si>
-  <si>
-    <t>-14.859mm</t>
-  </si>
-  <si>
-    <t>7.747mm</t>
-  </si>
-  <si>
-    <t>-4.699mm</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>TPS22918DBVR</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>22.479mm</t>
+  </si>
+  <si>
+    <t>-29.464mm</t>
+  </si>
+  <si>
+    <t>23.829mm</t>
+  </si>
+  <si>
+    <t>-30.414mm</t>
   </si>
 </sst>
 </file>
@@ -480,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -606,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -615,10 +684,186 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>90</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>180</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>270</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
